--- a/Freq_Volt_Profile/Raw_Excels/Frequency_22_03_2022.xlsx
+++ b/Freq_Volt_Profile/Raw_Excels/Frequency_22_03_2022.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63C3A45-57DB-4C6B-AB6F-6A7F5064DEB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FFC478-E54F-4F00-AFF9-386AB892E060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,15 +26,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>15 Minute average</t>
   </si>
   <si>
     <t>Time Block</t>
-  </si>
-  <si>
-    <t>5 min</t>
   </si>
   <si>
     <t>timestamp</t>
@@ -923,10 +920,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AV8642"/>
+  <dimension ref="A1:AG8641"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="59" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" topLeftCell="A8623" zoomScaleNormal="100" zoomScaleSheetLayoutView="59" workbookViewId="0">
+      <selection activeCell="I8641" activeCellId="1" sqref="A8642:B8642 I8641"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -938,10 +935,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1064,7 +1061,7 @@
         <v>50.090138000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>44642.001736111109</v>
       </c>
@@ -1072,7 +1069,7 @@
         <v>50.080745</v>
       </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>44642.001851851855</v>
       </c>
@@ -1080,18 +1077,15 @@
         <v>50.077840999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>44642.001967592594</v>
       </c>
       <c r="B19" s="7">
         <v>50.085977999999997</v>
       </c>
-      <c r="AV19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>44642.002083333333</v>
       </c>
@@ -1099,7 +1093,7 @@
         <v>50.090086999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>44642.002199074072</v>
       </c>
@@ -1107,7 +1101,7 @@
         <v>50.097470000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>44642.002314814818</v>
       </c>
@@ -1115,7 +1109,7 @@
         <v>50.095163999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>44642.002430555556</v>
       </c>
@@ -1123,7 +1117,7 @@
         <v>50.090643999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>44642.002546296295</v>
       </c>
@@ -1131,7 +1125,7 @@
         <v>50.078726000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>44642.002662037034</v>
       </c>
@@ -1139,7 +1133,7 @@
         <v>50.083537</v>
       </c>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>44642.00277777778</v>
       </c>
@@ -1147,7 +1141,7 @@
         <v>50.091172999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>44642.002893518518</v>
       </c>
@@ -1155,7 +1149,7 @@
         <v>50.084792</v>
       </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>44642.003009259257</v>
       </c>
@@ -1163,7 +1157,7 @@
         <v>50.088095000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>44642.003125000003</v>
       </c>
@@ -1171,7 +1165,7 @@
         <v>50.091608000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>44642.003240740742</v>
       </c>
@@ -1205,7 +1199,7 @@
       <c r="AF30" s="3"/>
       <c r="AG30" s="3"/>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>44642.00335648148</v>
       </c>
@@ -1213,7 +1207,7 @@
         <v>50.090139999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>44642.003472222219</v>
       </c>
@@ -70091,14 +70085,6 @@
       </c>
       <c r="B8641" s="7">
         <v>50.032139000000001</v>
-      </c>
-    </row>
-    <row r="8642" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8642" s="6">
-        <v>44558</v>
-      </c>
-      <c r="B8642" s="7">
-        <v>50.057633000000003</v>
       </c>
     </row>
   </sheetData>
